--- a/biology/Zoologie/Bradornis/Bradornis.xlsx
+++ b/biology/Zoologie/Bradornis/Bradornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradornis est un genre d’oiseaux de la famille des Muscicapidae.
-S'appuyant sur diverses études phylogéniques qui montrent que les espèces de ce genre appartiennent à un clade d'espèces proches, le Congrès ornithologique international (classification version 4.1, 2014) transfère les quatre espèces de ce genre dans le genre Melaenornis. il fut ressuscité en 2023[1],[2] et inclut désormais les six espèce suivantes :
+S'appuyant sur diverses études phylogéniques qui montrent que les espèces de ce genre appartiennent à un clade d'espèces proches, le Congrès ornithologique international (classification version 4.1, 2014) transfère les quatre espèces de ce genre dans le genre Melaenornis. il fut ressuscité en 2023, et inclut désormais les six espèce suivantes :
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jusqu'à la classification de référence (version 3.5, 2013) du Congrès ornithologique international (COI) (ordre phylogénique) :
 Bradornis comitatus (Cassin, 1857) – Gobemouche à petit bec
